--- a/table_model____spi-6__lasso_($\beta_=_$2.0).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$2.0).xlsx
@@ -690,7 +690,7 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.550245207602772</v>
+        <v>1.550244643588869</v>
       </c>
       <c r="C2">
         <v>1.550245211161321</v>
@@ -845,7 +845,7 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.139452914694613</v>
+        <v>1.13945251402827</v>
       </c>
       <c r="C3">
         <v>1.139452917222549</v>
@@ -1000,7 +1000,7 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3652399769195284</v>
+        <v>0.365239855638997</v>
       </c>
       <c r="C4">
         <v>0.3652399776847272</v>
@@ -1155,7 +1155,7 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5894424546874485</v>
+        <v>0.5894422327237414</v>
       </c>
       <c r="C5">
         <v>0.5894424560878906</v>
@@ -1310,7 +1310,7 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5191974513637658</v>
+        <v>-0.5191973094729911</v>
       </c>
       <c r="C6">
         <v>-0.5191974522590015</v>
@@ -1465,7 +1465,7 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.5671444455732427</v>
+        <v>-0.5671442635846924</v>
       </c>
       <c r="C7">
         <v>-0.5671444467214684</v>
@@ -1620,7 +1620,7 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.4130821257322616</v>
+        <v>0.4130819440607537</v>
       </c>
       <c r="C8">
         <v>0.4130821268784868</v>
@@ -1775,7 +1775,7 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.2601497758679511</v>
+        <v>0.2601496495730667</v>
       </c>
       <c r="C9">
         <v>0.260149776664787</v>
@@ -1930,7 +1930,7 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.1171814079522612</v>
+        <v>0.1171813398189368</v>
       </c>
       <c r="C10">
         <v>0.1171814083821368</v>
@@ -2085,7 +2085,7 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2178063868522057</v>
+        <v>-0.2178063484300289</v>
       </c>
       <c r="C11">
         <v>-0.2178063870946239</v>
@@ -2240,7 +2240,7 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.2857123856772452</v>
+        <v>0.2857122444342346</v>
       </c>
       <c r="C12">
         <v>0.2857123865683938</v>
@@ -2395,7 +2395,7 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>0.0287382834432043</v>
+        <v>0.02873822414567524</v>
       </c>
       <c r="C13">
         <v>0.0287382838173319</v>
@@ -2550,7 +2550,7 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.027460660909201</v>
+        <v>-1.027460342522312</v>
       </c>
       <c r="C14">
         <v>-1.027460662918008</v>
@@ -2705,7 +2705,7 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.1032578070356959</v>
+        <v>0.1032577358064053</v>
       </c>
       <c r="C15">
         <v>0.1032578074851049</v>
@@ -2860,7 +2860,7 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.5466131355447821</v>
+        <v>0.5466129023216449</v>
       </c>
       <c r="C16">
         <v>0.5466131370162635</v>
@@ -3015,7 +3015,7 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.4547320810754518</v>
+        <v>0.4547319055141845</v>
       </c>
       <c r="C17">
         <v>0.4547320821831255</v>
@@ -3170,7 +3170,7 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.4286718642775508</v>
+        <v>-0.4286717166825869</v>
       </c>
       <c r="C18">
         <v>-0.4286718652087759</v>
@@ -3325,7 +3325,7 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.005548321699152606</v>
+        <v>-0.005548324103191407</v>
       </c>
       <c r="C19">
         <v>-0.005548321683984725</v>
@@ -3480,7 +3480,7 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.1297997947376245</v>
+        <v>-0.1297997627283001</v>
       </c>
       <c r="C20">
         <v>-0.1297997949395819</v>
@@ -3635,7 +3635,7 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.321066432986901</v>
+        <v>-1.321065996909988</v>
       </c>
       <c r="C21">
         <v>-1.321066435738253</v>
@@ -3790,7 +3790,7 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.780033696261175</v>
+        <v>-1.780033092602301</v>
       </c>
       <c r="C22">
         <v>-1.780033700069857</v>
@@ -3945,7 +3945,7 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.138144867216965</v>
+        <v>-2.138144148154007</v>
       </c>
       <c r="C23">
         <v>-2.138144871753769</v>
@@ -4100,7 +4100,7 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.1938045482463</v>
+        <v>-1.19380415275789</v>
       </c>
       <c r="C24">
         <v>-1.193804550741567</v>
@@ -4255,7 +4255,7 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.819204770366347</v>
+        <v>-1.819204159418574</v>
       </c>
       <c r="C25">
         <v>-1.819204774221017</v>
@@ -4410,7 +4410,7 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.368671044441228</v>
+        <v>-1.368670580414711</v>
       </c>
       <c r="C26">
         <v>-1.368671047368924</v>
@@ -4565,7 +4565,7 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.631562842595208</v>
+        <v>-1.631562284156034</v>
       </c>
       <c r="C27">
         <v>-1.631562846118584</v>
@@ -4720,7 +4720,7 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.249826956184466</v>
+        <v>-1.249826547567648</v>
       </c>
       <c r="C28">
         <v>-1.249826958762564</v>
@@ -4875,7 +4875,7 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>0.019787939591731</v>
+        <v>0.01978789324146796</v>
       </c>
       <c r="C29">
         <v>0.01978793988417005</v>
@@ -5030,7 +5030,7 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.5372868381419055</v>
+        <v>0.5372865969425662</v>
       </c>
       <c r="C30">
         <v>0.5372868396637114</v>
@@ -5185,7 +5185,7 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.243864224365996</v>
+        <v>0.2438640865979519</v>
       </c>
       <c r="C31">
         <v>0.2438642252352199</v>
@@ -5340,7 +5340,7 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1447951143739554</v>
+        <v>-0.1447951152569127</v>
       </c>
       <c r="C32">
         <v>-0.1447951143683845</v>
@@ -5495,7 +5495,7 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.3252252972830874</v>
+        <v>0.3252251407009564</v>
       </c>
       <c r="C33">
         <v>0.3252252982710155</v>
@@ -5650,7 +5650,7 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.2691140020558871</v>
+        <v>0.2691138719814948</v>
       </c>
       <c r="C34">
         <v>0.2691140028765692</v>
@@ -5805,7 +5805,7 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.4817462165886628</v>
+        <v>-0.481746074016538</v>
       </c>
       <c r="C35">
         <v>-0.4817462174881971</v>
@@ -5960,7 +5960,7 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.220807913950278</v>
+        <v>-1.220807528523733</v>
       </c>
       <c r="C36">
         <v>-1.22080791638206</v>
@@ -6115,7 +6115,7 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.07019743998137</v>
+        <v>-1.070197101214147</v>
       </c>
       <c r="C37">
         <v>-1.070197442118763</v>
@@ -6270,7 +6270,7 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.804336323931776</v>
+        <v>-0.8043360737044616</v>
       </c>
       <c r="C38">
         <v>-0.8043363255105425</v>
@@ -6425,7 +6425,7 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.4594991024859105</v>
+        <v>-0.4594989609707447</v>
       </c>
       <c r="C39">
         <v>-0.4594991033787763</v>
@@ -6580,7 +6580,7 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3503906722564427</v>
+        <v>-0.3503905697619598</v>
       </c>
       <c r="C40">
         <v>-0.350390672903114</v>
@@ -6735,7 +6735,7 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.06695349325943722</v>
+        <v>-0.06695349593571427</v>
       </c>
       <c r="C41">
         <v>-0.0669534932425517</v>
@@ -6890,7 +6890,7 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1187253344292301</v>
+        <v>-0.118725318443161</v>
       </c>
       <c r="C42">
         <v>-0.1187253345300915</v>
@@ -7045,7 +7045,7 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.5738386559484256</v>
+        <v>0.573838435730767</v>
       </c>
       <c r="C43">
         <v>0.5738386573378513</v>
@@ -7200,7 +7200,7 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.717399736102042</v>
+        <v>1.717399111151963</v>
       </c>
       <c r="C44">
         <v>1.717399740045058</v>
@@ -7355,7 +7355,7 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.578010067803002</v>
+        <v>1.578009479059011</v>
       </c>
       <c r="C45">
         <v>1.578010071517582</v>
@@ -7510,7 +7510,7 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.906077554147493</v>
+        <v>1.906076846886848</v>
       </c>
       <c r="C46">
         <v>1.906077558609833</v>
@@ -7665,7 +7665,7 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.755335425935694</v>
+        <v>1.755334781468635</v>
       </c>
       <c r="C47">
         <v>1.755335430001849</v>
@@ -7820,7 +7820,7 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.638746933345675</v>
+        <v>1.638746346796058</v>
       </c>
       <c r="C48">
         <v>1.63874693704641</v>
@@ -7975,7 +7975,7 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.38658220238145</v>
+        <v>1.386581701078997</v>
       </c>
       <c r="C49">
         <v>1.386582205544332</v>
@@ -8130,7 +8130,7 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.1282283253162447</v>
+        <v>0.128228264957938</v>
       </c>
       <c r="C50">
         <v>0.1282283256970652</v>
@@ -8285,7 +8285,7 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4660512328843461</v>
+        <v>-0.4660510642424121</v>
       </c>
       <c r="C51">
         <v>-0.4660512339483635</v>
@@ -8440,7 +8440,7 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.317234653690078</v>
+        <v>-1.317234187232527</v>
       </c>
       <c r="C52">
         <v>-1.317234656633112</v>
@@ -8595,7 +8595,7 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.8070679945348589</v>
+        <v>-0.8070677001971744</v>
       </c>
       <c r="C53">
         <v>-0.8070679963919321</v>
@@ -8750,7 +8750,7 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.440640530945189</v>
+        <v>0.4406403667105654</v>
       </c>
       <c r="C54">
         <v>0.4406405319813992</v>
@@ -8905,7 +8905,7 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.8697753283787101</v>
+        <v>0.8697749939997987</v>
       </c>
       <c r="C55">
         <v>0.8697753304884166</v>
@@ -9060,7 +9060,7 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.436163437202621</v>
+        <v>1.436162914662302</v>
       </c>
       <c r="C56">
         <v>1.4361634404995</v>
@@ -9215,7 +9215,7 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.632028843946773</v>
+        <v>1.632028244337711</v>
       </c>
       <c r="C57">
         <v>1.632028847729904</v>
@@ -9370,7 +9370,7 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.536485437986685</v>
+        <v>1.536484870943282</v>
       </c>
       <c r="C58">
         <v>1.536485441564349</v>
@@ -9525,7 +9525,7 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.243603955952159</v>
+        <v>1.243603494763073</v>
       </c>
       <c r="C59">
         <v>1.243603958861953</v>
@@ -9680,7 +9680,7 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.130839745026709</v>
+        <v>1.130839326131239</v>
       </c>
       <c r="C60">
         <v>1.130839747669659</v>
@@ -9835,7 +9835,7 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.9205516413380251</v>
+        <v>0.9205512920334211</v>
       </c>
       <c r="C61">
         <v>0.9205516435419028</v>
@@ -9990,7 +9990,7 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.2480431528363168</v>
+        <v>0.2480430235838928</v>
       </c>
       <c r="C62">
         <v>0.2480431536518128</v>
@@ -10145,7 +10145,7 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.001549304765493406</v>
+        <v>-0.001549343076422335</v>
       </c>
       <c r="C63">
         <v>-0.001549304523777169</v>
@@ -10300,7 +10300,7 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.676229388795463</v>
+        <v>1.67622876765338</v>
       </c>
       <c r="C64">
         <v>1.676229392714452</v>
@@ -10455,7 +10455,7 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.821357160635885</v>
+        <v>1.821356476572485</v>
       </c>
       <c r="C65">
         <v>1.821357164951866</v>
@@ -10610,7 +10610,7 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>2.012945419225413</v>
+        <v>2.012944651156905</v>
       </c>
       <c r="C66">
         <v>2.01294542407141</v>
@@ -10765,7 +10765,7 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.804729517466084</v>
+        <v>1.804728831062834</v>
       </c>
       <c r="C67">
         <v>1.804729521796827</v>
@@ -10920,7 +10920,7 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.599322332106375</v>
+        <v>1.599321723511403</v>
       </c>
       <c r="C68">
         <v>1.5993223359462</v>
@@ -11075,7 +11075,7 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.753850790922464</v>
+        <v>1.753850136549424</v>
       </c>
       <c r="C69">
         <v>1.753850795051118</v>
@@ -11230,7 +11230,7 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.3189900539976867</v>
+        <v>0.3189898942084242</v>
       </c>
       <c r="C70">
         <v>0.3189900550058496</v>
@@ -11385,7 +11385,7 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.7045153239637321</v>
+        <v>0.7045150343699222</v>
       </c>
       <c r="C71">
         <v>0.7045153257908747</v>
@@ -11540,7 +11540,7 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.4032219697573699</v>
+        <v>0.4032218115901913</v>
       </c>
       <c r="C72">
         <v>0.4032219707552986</v>
@@ -11695,7 +11695,7 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.4447732853208939</v>
+        <v>0.4447731093509294</v>
       </c>
       <c r="C73">
         <v>0.4447732864311463</v>
@@ -11850,7 +11850,7 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.6313163236226698</v>
+        <v>0.6313160880493387</v>
       </c>
       <c r="C74">
         <v>0.6313163251089795</v>
@@ -12005,7 +12005,7 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.3552539200324766</v>
+        <v>0.3552537789830295</v>
       </c>
       <c r="C75">
         <v>0.3552539209224039</v>
@@ -12160,7 +12160,7 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.6113198046564687</v>
+        <v>0.6113195765348785</v>
       </c>
       <c r="C76">
         <v>0.6113198060957628</v>
@@ -12315,7 +12315,7 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1434141788248512</v>
+        <v>-0.1434141395361226</v>
       </c>
       <c r="C77">
         <v>-0.1434141790727367</v>
@@ -12470,7 +12470,7 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.2462760314199872</v>
+        <v>-0.2462759792745244</v>
       </c>
       <c r="C78">
         <v>-0.2462760317489902</v>
@@ -12625,7 +12625,7 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.696771862476514</v>
+        <v>0.6967715760058564</v>
       </c>
       <c r="C79">
         <v>0.6967718642839515</v>
@@ -12780,7 +12780,7 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.849327843725721</v>
+        <v>0.8493274967370954</v>
       </c>
       <c r="C80">
         <v>0.8493278459149864</v>
@@ -12935,7 +12935,7 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>0.9375733199351248</v>
+        <v>0.9375729483028564</v>
       </c>
       <c r="C81">
         <v>0.937573322279875</v>
@@ -13090,7 +13090,7 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1684570308426681</v>
+        <v>0.1684569088192269</v>
       </c>
       <c r="C82">
         <v>0.1684570316125541</v>
@@ -13245,7 +13245,7 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9266492930240077</v>
+        <v>0.9266489050674667</v>
       </c>
       <c r="C83">
         <v>0.9266492954717531</v>
@@ -13400,7 +13400,7 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3965519591377489</v>
+        <v>0.3965517568795799</v>
       </c>
       <c r="C84">
         <v>0.3965519604138621</v>
@@ -13555,7 +13555,7 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.6160836217009155</v>
+        <v>-0.6160834773188747</v>
       </c>
       <c r="C85">
         <v>-0.6160836226118693</v>
@@ -13710,7 +13710,7 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-0.9424916113253311</v>
+        <v>-0.9424913497811522</v>
       </c>
       <c r="C86">
         <v>-0.9424916129754994</v>
@@ -13865,7 +13865,7 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.348955502413777</v>
+        <v>-1.348955106271449</v>
       </c>
       <c r="C87">
         <v>-1.348955504913169</v>
@@ -14020,7 +14020,7 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.739024915255213</v>
+        <v>-0.7390247226984958</v>
       </c>
       <c r="C88">
         <v>-0.7390249164701166</v>
@@ -14175,7 +14175,7 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.321608875191519</v>
+        <v>-1.321608486882759</v>
       </c>
       <c r="C89">
         <v>-1.321608877641487</v>
@@ -14330,7 +14330,7 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2135144546882404</v>
+        <v>-0.2135144565165202</v>
       </c>
       <c r="C90">
         <v>-0.2135144546767052</v>
@@ -14485,7 +14485,7 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.05305318255164647</v>
+        <v>0.05305308683093991</v>
       </c>
       <c r="C91">
         <v>0.05305318315557989</v>
@@ -14640,7 +14640,7 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1671611072929566</v>
+        <v>0.1671609722046191</v>
       </c>
       <c r="C92">
         <v>0.1671611081452734</v>
@@ -14795,7 +14795,7 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4847465934942063</v>
+        <v>0.4847463533379062</v>
       </c>
       <c r="C93">
         <v>0.4847465950094313</v>
@@ -14950,7 +14950,7 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.582837153375714</v>
+        <v>0.5828368791412748</v>
       </c>
       <c r="C94">
         <v>0.5828371551059492</v>
@@ -15105,7 +15105,7 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2793635162135129</v>
+        <v>0.2793633479741285</v>
       </c>
       <c r="C95">
         <v>0.2793635172749904</v>
@@ -15260,7 +15260,7 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.4617949657881771</v>
+        <v>-0.4617948752643126</v>
       </c>
       <c r="C96">
         <v>-0.461794966359322</v>
@@ -15415,7 +15415,7 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.3351023892916679</v>
+        <v>-0.3351023410416812</v>
       </c>
       <c r="C97">
         <v>-0.335102389596093</v>
@@ -15570,7 +15570,7 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.4538891917079836</v>
+        <v>-0.4538890975460164</v>
       </c>
       <c r="C98">
         <v>-0.4538891923020824</v>
@@ -15725,7 +15725,7 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-0.9526773559333012</v>
+        <v>-0.952677094770758</v>
       </c>
       <c r="C99">
         <v>-0.9526773575810616</v>
@@ -15880,7 +15880,7 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.6979735300234975</v>
+        <v>-0.697973351449344</v>
       </c>
       <c r="C100">
         <v>-0.6979735311501805</v>
@@ -16035,7 +16035,7 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.5017188061434255</v>
+        <v>-0.50171869725037</v>
       </c>
       <c r="C101">
         <v>-0.5017188068304677</v>
@@ -16190,7 +16190,7 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.022160609224829</v>
+        <v>-1.022160330518922</v>
       </c>
       <c r="C102">
         <v>-1.022160610983276</v>
@@ -16345,7 +16345,7 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.611580315100602</v>
+        <v>-1.611579836672024</v>
       </c>
       <c r="C103">
         <v>-1.611580318119165</v>
@@ -16500,7 +16500,7 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.875316276524053</v>
+        <v>-1.875315713315357</v>
       </c>
       <c r="C104">
         <v>-1.875316280077521</v>
@@ -16655,7 +16655,7 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.299522136323025</v>
+        <v>-1.299521768533631</v>
       </c>
       <c r="C105">
         <v>-1.299522138643529</v>
@@ -16810,7 +16810,7 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.43396877360401</v>
+        <v>-1.433968350213123</v>
       </c>
       <c r="C106">
         <v>-1.433968776275322</v>
@@ -16965,7 +16965,7 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.6550721534366271</v>
+        <v>-0.6550719997013352</v>
       </c>
       <c r="C107">
         <v>-0.6550721544065936</v>
@@ -17120,7 +17120,7 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6428872072686844</v>
+        <v>0.6428869208061561</v>
       </c>
       <c r="C108">
         <v>0.6428872090760707</v>
@@ -17275,7 +17275,7 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8378848298237682</v>
+        <v>0.8378844752988874</v>
       </c>
       <c r="C109">
         <v>0.8378848320605823</v>
@@ -17430,7 +17430,7 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.173168789908715</v>
+        <v>1.173168322835925</v>
       </c>
       <c r="C110">
         <v>1.17316879285563</v>
@@ -17585,7 +17585,7 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>1.899905979609235</v>
+        <v>1.899905256248586</v>
       </c>
       <c r="C111">
         <v>1.899905984173155</v>
@@ -17740,7 +17740,7 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.130234340643811</v>
+        <v>2.13023354292222</v>
       </c>
       <c r="C112">
         <v>2.130234345676898</v>
@@ -17895,7 +17895,7 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.774685484162975</v>
+        <v>1.774684802094122</v>
       </c>
       <c r="C113">
         <v>1.774685488466372</v>
@@ -18050,7 +18050,7 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.497876698018777</v>
+        <v>1.497876095896099</v>
       </c>
       <c r="C114">
         <v>1.497876701817767</v>
@@ -18205,7 +18205,7 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.721659413190274</v>
+        <v>1.721658735347251</v>
       </c>
       <c r="C115">
         <v>1.721659417467009</v>
@@ -18360,7 +18360,7 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>1.979524194931777</v>
+        <v>1.979523433170784</v>
       </c>
       <c r="C116">
         <v>1.979524199737978</v>
@@ -18515,7 +18515,7 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.572025189364719</v>
+        <v>1.572024576346727</v>
       </c>
       <c r="C117">
         <v>1.572025193232451</v>
@@ -18670,7 +18670,7 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.151267006923953</v>
+        <v>1.151266534869639</v>
       </c>
       <c r="C118">
         <v>1.151267009902299</v>
@@ -18825,7 +18825,7 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.214585465779111</v>
+        <v>1.214584974193303</v>
       </c>
       <c r="C119">
         <v>1.214585468880687</v>
@@ -18980,7 +18980,7 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.127897491257006</v>
+        <v>2.127896695894589</v>
       </c>
       <c r="C120">
         <v>2.127897496275209</v>
@@ -19135,7 +19135,7 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>1.968939052748069</v>
+        <v>1.968938308187395</v>
       </c>
       <c r="C121">
         <v>1.968939057445747</v>
@@ -19290,7 +19290,7 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.734423598871153</v>
+        <v>1.734422937243118</v>
       </c>
       <c r="C122">
         <v>1.734423603045582</v>
@@ -19445,7 +19445,7 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.344520499657938</v>
+        <v>1.344519969176674</v>
       </c>
       <c r="C123">
         <v>1.344520503004919</v>
@@ -19600,7 +19600,7 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.498318795294902</v>
+        <v>1.498318217222153</v>
       </c>
       <c r="C124">
         <v>1.498318798942153</v>
@@ -19755,7 +19755,7 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.457553052991022</v>
+        <v>1.45755248190919</v>
       </c>
       <c r="C125">
         <v>1.457553056594165</v>
@@ -19910,7 +19910,7 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.5898202162977108</v>
+        <v>-0.5898200872468062</v>
       </c>
       <c r="C126">
         <v>-0.5898202171119353</v>
@@ -20065,7 +20065,7 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6905904177129563</v>
+        <v>0.6905901001365714</v>
       </c>
       <c r="C127">
         <v>0.6905904197166501</v>
@@ -20220,7 +20220,7 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3900839165273121</v>
+        <v>0.3900837046172035</v>
       </c>
       <c r="C128">
         <v>0.3900839178643227</v>
@@ -20375,7 +20375,7 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>0.9814731382196301</v>
+        <v>0.9814727278904259</v>
       </c>
       <c r="C129">
         <v>0.981473140808532</v>
@@ -20530,7 +20530,7 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.5970080207270881</v>
+        <v>0.5970077415659214</v>
       </c>
       <c r="C130">
         <v>0.5970080224884078</v>
@@ -20685,7 +20685,7 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.166056074234805</v>
+        <v>1.166055599449838</v>
       </c>
       <c r="C131">
         <v>1.16605607723038</v>
@@ -20840,7 +20840,7 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.512766833154064</v>
+        <v>1.512766248827715</v>
       </c>
       <c r="C132">
         <v>1.512766836840772</v>
@@ -20995,7 +20995,7 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6352400423971687</v>
+        <v>0.635239757600178</v>
       </c>
       <c r="C133">
         <v>0.6352400441940467</v>
@@ -21150,7 +21150,7 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.9221167244151116</v>
+        <v>0.9221163442370448</v>
       </c>
       <c r="C134">
         <v>0.92211672681378</v>
@@ -21305,7 +21305,7 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6894528404801227</v>
+        <v>0.6894525369189655</v>
       </c>
       <c r="C135">
         <v>0.6894528423953898</v>
@@ -21460,7 +21460,7 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.408750549120859</v>
+        <v>0.408750348122236</v>
       </c>
       <c r="C136">
         <v>0.4087505503890254</v>
@@ -21615,7 +21615,7 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.02894204266554827</v>
+        <v>-0.02894209663735266</v>
       </c>
       <c r="C137">
         <v>-0.02894204232502248</v>
@@ -21770,7 +21770,7 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2969188803024404</v>
+        <v>0.2969187001913908</v>
       </c>
       <c r="C138">
         <v>0.2969188814388202</v>
